--- a/optimization/Concepts.xlsx
+++ b/optimization/Concepts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="36">
   <si>
     <t>Variable</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Long links (0.7 m)</t>
-  </si>
-  <si>
-    <t>aboxu y axe</t>
   </si>
   <si>
     <t>acc length</t>
@@ -55,9 +52,6 @@
   </si>
   <si>
     <t>3.1-3.6</t>
-  </si>
-  <si>
-    <t># of parralel axes</t>
   </si>
   <si>
     <t>Concepts</t>
@@ -82,9 +76,6 @@
   </si>
   <si>
     <t>min 1 max 3.6</t>
-  </si>
-  <si>
-    <t>shortest\longest link</t>
   </si>
   <si>
     <t>prismatic to revulote ratio</t>
@@ -125,12 +116,27 @@
   <si>
     <t>11</t>
   </si>
+  <si>
+    <t>about y axe</t>
+  </si>
+  <si>
+    <t>longest link</t>
+  </si>
+  <si>
+    <t># of parallel axes</t>
+  </si>
+  <si>
+    <t>prismatic to revolute ratio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,11 +160,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <strike/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <u/>
       <sz val="14"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -170,7 +191,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -524,21 +545,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -617,17 +791,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -638,15 +806,105 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="109">
     <dxf>
       <font>
         <b val="0"/>
@@ -668,10 +926,40 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom/>
       </border>
     </dxf>
@@ -692,6 +980,1282 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1147,6 +2711,1202 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1163,8 +3923,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C7:O16" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
-  <autoFilter ref="C7:O16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C7:N16" totalsRowShown="0" headerRowDxfId="108" dataDxfId="106" headerRowBorderDxfId="107" tableBorderDxfId="105" totalsRowBorderDxfId="104">
+  <autoFilter ref="C7:N16">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1177,22 +3937,101 @@
     <filterColumn colId="9" hiddenButton="1"/>
     <filterColumn colId="10" hiddenButton="1"/>
     <filterColumn colId="11" hiddenButton="1"/>
-    <filterColumn colId="12" hiddenButton="1"/>
   </autoFilter>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Variable" dataDxfId="44"/>
+    <tableColumn id="2" name="number of concepts" dataDxfId="43"/>
+    <tableColumn id="3" name="1" dataDxfId="42"/>
+    <tableColumn id="4" name="2" dataDxfId="41"/>
+    <tableColumn id="5" name="3" dataDxfId="40"/>
+    <tableColumn id="6" name="4" dataDxfId="39"/>
+    <tableColumn id="7" name="5" dataDxfId="38"/>
+    <tableColumn id="8" name="6" dataDxfId="37"/>
+    <tableColumn id="9" name="7" dataDxfId="36"/>
+    <tableColumn id="10" name="8" dataDxfId="35"/>
+    <tableColumn id="11" name="9" dataDxfId="34"/>
+    <tableColumn id="12" name="10" dataDxfId="33"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="C24:H33" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102" headerRowBorderDxfId="100" tableBorderDxfId="101" totalsRowBorderDxfId="99">
+  <autoFilter ref="C24:H33"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Variable" dataDxfId="98"/>
+    <tableColumn id="2" name="number of concepts" dataDxfId="93"/>
+    <tableColumn id="3" name="1" dataDxfId="97"/>
+    <tableColumn id="4" name="2" dataDxfId="96"/>
+    <tableColumn id="5" name="3" dataDxfId="95"/>
+    <tableColumn id="6" name="4" dataDxfId="94"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table26" displayName="Table26" ref="C39:I49" totalsRowCount="1" headerRowDxfId="92" dataDxfId="91" headerRowBorderDxfId="89" tableBorderDxfId="90" totalsRowBorderDxfId="88">
+  <autoFilter ref="C39:I49"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Variable" dataDxfId="87" totalsRowDxfId="19"/>
+    <tableColumn id="2" name="number of concepts" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="18">
+      <totalsRowFormula>D40*D41*D42*D43*D44*D45*D47*D46*D48</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" name="1" dataDxfId="85" totalsRowDxfId="17"/>
+    <tableColumn id="4" name="2" dataDxfId="84" totalsRowDxfId="16"/>
+    <tableColumn id="5" name="3" dataDxfId="83" totalsRowDxfId="15"/>
+    <tableColumn id="6" name="4" dataDxfId="82" totalsRowDxfId="14"/>
+    <tableColumn id="7" name="5" dataDxfId="81" totalsRowDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table28" displayName="Table28" ref="P24:AB34" totalsRowCount="1" headerRowDxfId="80" dataDxfId="79" headerRowBorderDxfId="77" tableBorderDxfId="78" totalsRowBorderDxfId="76">
+  <autoFilter ref="P24:AB34"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Variable" dataDxfId="14"/>
-    <tableColumn id="2" name="number of concepts" dataDxfId="13"/>
-    <tableColumn id="3" name="1" dataDxfId="12"/>
-    <tableColumn id="4" name="2" dataDxfId="11"/>
-    <tableColumn id="5" name="3" dataDxfId="10"/>
-    <tableColumn id="6" name="4" dataDxfId="9"/>
-    <tableColumn id="7" name="5" dataDxfId="8"/>
-    <tableColumn id="8" name="6" dataDxfId="7"/>
-    <tableColumn id="9" name="7" dataDxfId="6"/>
-    <tableColumn id="10" name="8" dataDxfId="5"/>
-    <tableColumn id="11" name="9" dataDxfId="4"/>
-    <tableColumn id="12" name="10" dataDxfId="3"/>
-    <tableColumn id="15" name="11" dataDxfId="2"/>
+    <tableColumn id="1" name="Variable" dataDxfId="75" totalsRowDxfId="12"/>
+    <tableColumn id="2" name="number of concepts" totalsRowFunction="custom" dataDxfId="74" totalsRowDxfId="11">
+      <totalsRowFormula>Q25*Q26*Q27*Q28*Q29*Q30*Q32*Q31*Q33</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" name="1" dataDxfId="73" totalsRowDxfId="10"/>
+    <tableColumn id="4" name="2" dataDxfId="72" totalsRowDxfId="9"/>
+    <tableColumn id="5" name="3" dataDxfId="71" totalsRowDxfId="8"/>
+    <tableColumn id="6" name="4" dataDxfId="70" totalsRowDxfId="7"/>
+    <tableColumn id="7" name="5" dataDxfId="69" totalsRowDxfId="6"/>
+    <tableColumn id="8" name="6" dataDxfId="68" totalsRowDxfId="5"/>
+    <tableColumn id="9" name="7" dataDxfId="67" totalsRowDxfId="4"/>
+    <tableColumn id="10" name="8" dataDxfId="66" totalsRowDxfId="3"/>
+    <tableColumn id="11" name="9" dataDxfId="65" totalsRowDxfId="2"/>
+    <tableColumn id="12" name="10" dataDxfId="64" totalsRowDxfId="1"/>
+    <tableColumn id="15" name="11" dataDxfId="63" totalsRowDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table2810" displayName="Table2810" ref="P39:AB49" totalsRowCount="1" headerRowDxfId="62" dataDxfId="61" headerRowBorderDxfId="59" tableBorderDxfId="60" totalsRowBorderDxfId="58">
+  <autoFilter ref="P39:AB48"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Variable" dataDxfId="57" totalsRowDxfId="32"/>
+    <tableColumn id="2" name="number of concepts" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="31">
+      <totalsRowFormula>Q40*Q41*Q42*Q43*Q44*Q45*Q47*Q46*Q48</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" name="1" dataDxfId="55" totalsRowDxfId="30"/>
+    <tableColumn id="4" name="2" dataDxfId="54" totalsRowDxfId="29"/>
+    <tableColumn id="5" name="3" dataDxfId="53" totalsRowDxfId="28"/>
+    <tableColumn id="6" name="4" dataDxfId="52" totalsRowDxfId="27"/>
+    <tableColumn id="7" name="5" dataDxfId="51" totalsRowDxfId="26"/>
+    <tableColumn id="8" name="6" dataDxfId="50" totalsRowDxfId="25"/>
+    <tableColumn id="9" name="7" dataDxfId="49" totalsRowDxfId="24"/>
+    <tableColumn id="10" name="8" dataDxfId="48" totalsRowDxfId="23"/>
+    <tableColumn id="11" name="9" dataDxfId="47" totalsRowDxfId="22"/>
+    <tableColumn id="12" name="10" dataDxfId="46" totalsRowDxfId="21"/>
+    <tableColumn id="15" name="11" dataDxfId="45" totalsRowDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1461,10 +4300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:P41"/>
+  <dimension ref="A5:AB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,527 +4312,498 @@
     <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="3"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35" t="s">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="34"/>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10">
+        <v>3</v>
+      </c>
+      <c r="F8" s="11">
+        <v>4</v>
+      </c>
+      <c r="G8" s="11">
+        <v>5</v>
+      </c>
+      <c r="H8" s="11">
+        <v>6</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="9">
+        <v>6</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11">
+        <v>2</v>
+      </c>
+      <c r="H9" s="11">
+        <v>3</v>
+      </c>
+      <c r="I9" s="11">
+        <v>4</v>
+      </c>
+      <c r="J9" s="12">
+        <v>5</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="8">
+        <v>3</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="9">
+        <v>6</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11">
+        <v>2</v>
+      </c>
+      <c r="H10" s="11">
+        <v>3</v>
+      </c>
+      <c r="I10" s="11">
+        <v>4</v>
+      </c>
+      <c r="J10" s="12">
+        <v>5</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="8">
+        <v>4</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="9">
+        <v>5</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="11">
+        <v>3</v>
+      </c>
+      <c r="H11" s="11">
+        <v>4</v>
+      </c>
+      <c r="I11" s="11">
+        <v>5</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8">
+        <v>5</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9">
+        <v>5</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
+        <v>6</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="9">
+        <v>6</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11">
+        <v>2</v>
+      </c>
+      <c r="H13" s="11">
+        <v>3</v>
+      </c>
+      <c r="I13" s="11">
+        <v>4</v>
+      </c>
+      <c r="J13" s="12">
+        <v>5</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="38">
+        <v>7</v>
+      </c>
+      <c r="C14" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="37"/>
+      <c r="D14" s="40">
+        <v>4</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="47" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="32" t="s">
+    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="13">
+        <v>8</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="14">
+        <v>2</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="13">
+        <v>9</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="14">
+        <v>10</v>
+      </c>
+      <c r="E16" s="15">
         <v>0</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="10">
-        <v>4</v>
-      </c>
-      <c r="E8" s="11">
-        <v>3</v>
-      </c>
-      <c r="F8" s="12">
-        <v>4</v>
-      </c>
-      <c r="G8" s="12">
-        <v>5</v>
-      </c>
-      <c r="H8" s="12">
-        <v>6</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="10">
-        <v>6</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12">
-        <v>2</v>
-      </c>
-      <c r="H9" s="12">
-        <v>3</v>
-      </c>
-      <c r="I9" s="12">
-        <v>4</v>
-      </c>
-      <c r="J9" s="13">
-        <v>5</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="9">
-        <v>3</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="10">
-        <v>6</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12">
-        <v>1</v>
-      </c>
-      <c r="G10" s="12">
-        <v>2</v>
-      </c>
-      <c r="H10" s="12">
-        <v>3</v>
-      </c>
-      <c r="I10" s="12">
-        <v>4</v>
-      </c>
-      <c r="J10" s="13">
-        <v>5</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="9">
-        <v>4</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="10">
-        <v>5</v>
-      </c>
-      <c r="E11" s="11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="12">
-        <v>2</v>
-      </c>
-      <c r="G11" s="12">
-        <v>3</v>
-      </c>
-      <c r="H11" s="12">
-        <v>4</v>
-      </c>
-      <c r="I11" s="12">
-        <v>5</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="9">
-        <v>5</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="10">
-        <v>5</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="9">
-        <v>6</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="10">
-        <v>6</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="F13" s="12">
-        <v>1</v>
-      </c>
-      <c r="G13" s="12">
-        <v>2</v>
-      </c>
-      <c r="H13" s="12">
-        <v>3</v>
-      </c>
-      <c r="I13" s="12">
-        <v>4</v>
-      </c>
-      <c r="J13" s="13">
-        <v>5</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="9">
-        <v>7</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="10">
-        <v>4</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="14">
-        <v>8</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="15">
-        <v>3</v>
-      </c>
-      <c r="E15" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="F15" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="G15" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="14">
-        <v>9</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="15">
-        <v>10</v>
-      </c>
-      <c r="E16" s="16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="18">
+      <c r="F16" s="17">
         <f>1/5</f>
         <v>0.2</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="17">
         <f>1/4</f>
         <v>0.25</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="27">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="16">
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="28">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="17">
         <f>3/3</f>
         <v>1</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="44">
         <f>3/2</f>
         <v>1.5</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="16">
         <f>2/1</f>
         <v>2</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N16" s="65">
         <f>3/1</f>
         <v>3</v>
       </c>
-      <c r="O16" s="13" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="17" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="19">
+    <row r="17" spans="2:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="18">
         <v>10</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
       <c r="N17" s="24"/>
-      <c r="O17" s="25"/>
     </row>
-    <row r="18" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="26"/>
-      <c r="C18" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="38">
-        <f>D8*D9*D10*D11*D12*D13*D14*D15*D16</f>
-        <v>2592000</v>
-      </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="2"/>
+    <row r="18" spans="2:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="25"/>
+      <c r="C18" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="31">
+        <f>432+Table28[[#Totals],[number of concepts]]+Table26[[#Totals],[number of concepts]]+Table2810[[#Totals],[number of concepts]]</f>
+        <v>64240</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
@@ -2007,9 +4817,8 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2021,9 +4830,8 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2035,9 +4843,8 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2049,177 +4856,677 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
+    <row r="23" spans="2:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="34"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+    <row r="24" spans="2:28" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+      <c r="C24" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="45" t="s">
+        <v>21</v>
+      </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="X24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB24" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+    <row r="25" spans="2:28" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="56">
+        <v>1</v>
+      </c>
+      <c r="E25" s="51">
+        <v>3</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="46"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
+      <c r="O25" s="8">
+        <v>1</v>
+      </c>
+      <c r="P25" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>1</v>
+      </c>
+      <c r="R25" s="10">
+        <v>5</v>
+      </c>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="W25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="X25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB25" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+    <row r="26" spans="2:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="8">
+        <v>2</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="56">
+        <v>3</v>
+      </c>
+      <c r="E26" s="51">
+        <v>0</v>
+      </c>
+      <c r="F26" s="11">
+        <v>1</v>
+      </c>
+      <c r="G26" s="11">
+        <v>2</v>
+      </c>
+      <c r="H26" s="46"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
+      <c r="O26" s="8">
+        <v>2</v>
+      </c>
+      <c r="P26" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>5</v>
+      </c>
+      <c r="R26" s="10">
+        <v>0</v>
+      </c>
+      <c r="S26" s="11">
+        <v>1</v>
+      </c>
+      <c r="T26" s="11">
+        <v>2</v>
+      </c>
+      <c r="U26" s="11">
+        <v>3</v>
+      </c>
+      <c r="V26" s="11">
+        <v>4</v>
+      </c>
+      <c r="W26" s="12"/>
+      <c r="X26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB26" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+    <row r="27" spans="2:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="8">
+        <v>3</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="56">
+        <v>2</v>
+      </c>
+      <c r="E27" s="51">
+        <v>1</v>
+      </c>
+      <c r="F27" s="16">
+        <v>2</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="46"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
+      <c r="O27" s="8">
+        <v>3</v>
+      </c>
+      <c r="P27" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>5</v>
+      </c>
+      <c r="R27" s="10">
+        <v>0</v>
+      </c>
+      <c r="S27" s="11">
+        <v>1</v>
+      </c>
+      <c r="T27" s="11">
+        <v>2</v>
+      </c>
+      <c r="U27" s="11">
+        <v>3</v>
+      </c>
+      <c r="V27" s="11">
+        <v>4</v>
+      </c>
+      <c r="W27" s="12"/>
+      <c r="X27" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y27" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z27" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA27" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB27" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+    <row r="28" spans="2:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="8">
+        <v>4</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="56">
+        <v>2</v>
+      </c>
+      <c r="E28" s="51">
+        <v>1</v>
+      </c>
+      <c r="F28" s="11">
+        <v>2</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="46"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
+      <c r="O28" s="8">
+        <v>4</v>
+      </c>
+      <c r="P28" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>4</v>
+      </c>
+      <c r="R28" s="10">
+        <v>1</v>
+      </c>
+      <c r="S28" s="11">
+        <v>2</v>
+      </c>
+      <c r="T28" s="11">
+        <v>3</v>
+      </c>
+      <c r="U28" s="11">
+        <v>4</v>
+      </c>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="X28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB28" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+    <row r="29" spans="2:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="8">
+        <v>5</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="56">
+        <v>1</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="46"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
+      <c r="O29" s="8">
+        <v>5</v>
+      </c>
+      <c r="P29" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>4</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="S29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="T29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="X29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB29" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+    <row r="30" spans="2:28" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="8">
+        <v>6</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="56">
+        <v>3</v>
+      </c>
+      <c r="E30" s="51">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1</v>
+      </c>
+      <c r="G30" s="11">
+        <v>2</v>
+      </c>
+      <c r="H30" s="46"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
+      <c r="O30" s="8">
+        <v>6</v>
+      </c>
+      <c r="P30" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>5</v>
+      </c>
+      <c r="R30" s="10">
+        <v>0</v>
+      </c>
+      <c r="S30" s="11">
+        <v>1</v>
+      </c>
+      <c r="T30" s="11">
+        <v>2</v>
+      </c>
+      <c r="U30" s="11">
+        <v>3</v>
+      </c>
+      <c r="V30" s="11">
+        <v>4</v>
+      </c>
+      <c r="W30" s="12"/>
+      <c r="X30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB30" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+    <row r="31" spans="2:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B31" s="38">
+        <v>7</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="57">
+        <v>1</v>
+      </c>
+      <c r="E31" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="47" t="s">
+        <v>17</v>
+      </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
+      <c r="O31" s="38">
+        <v>7</v>
+      </c>
+      <c r="P31" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="40">
+        <v>1</v>
+      </c>
+      <c r="R31" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="S31" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="T31" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="U31" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="V31" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="W31" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="X31" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y31" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z31" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA31" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB31" s="43" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+    <row r="32" spans="2:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="13">
+        <v>8</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="58">
+        <v>1</v>
+      </c>
+      <c r="E32" s="53">
+        <v>0.7</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="46" t="s">
+        <v>12</v>
+      </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
+      <c r="O32" s="13">
+        <v>8</v>
+      </c>
+      <c r="P32" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q32" s="14">
+        <v>2</v>
+      </c>
+      <c r="R32" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="S32" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="T32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="V32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="W32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="X32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB32" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="33" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+    <row r="33" spans="2:28" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="18">
+        <v>9</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="19">
+        <v>3</v>
+      </c>
+      <c r="E33" s="54">
+        <v>0</v>
+      </c>
+      <c r="F33" s="22">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="22">
+        <f>2/1</f>
+        <v>2</v>
+      </c>
+      <c r="H33" s="49"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
+      <c r="O33" s="13">
+        <v>9</v>
+      </c>
+      <c r="P33" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q33" s="14">
+        <v>4</v>
+      </c>
+      <c r="R33" s="15">
+        <v>0</v>
+      </c>
+      <c r="S33" s="17">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="T33" s="28">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U33" s="44">
+        <f>3/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="34" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
+    <row r="34" spans="2:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="25"/>
+      <c r="C34" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="31">
+        <f>D25*D26*D27*D28*D29*D30*D31*D32*D33</f>
+        <v>108</v>
+      </c>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="18">
+        <v>10</v>
+      </c>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="14">
+        <f>Q25*Q26*Q27*Q28*Q29*Q30*Q32*Q31*Q33</f>
+        <v>16000</v>
+      </c>
+      <c r="R34" s="15"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="17"/>
     </row>
-    <row r="35" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -2231,104 +5538,741 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
       <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
+    <row r="37" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="35"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="34"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="33"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="33"/>
+      <c r="AA38" s="33"/>
+      <c r="AB38" s="34"/>
     </row>
-    <row r="38" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
+    <row r="39" spans="2:28" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B39" s="3"/>
+      <c r="C39" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O39" s="3"/>
+      <c r="P39" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="X39" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y39" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z39" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA39" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB39" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="39" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
+    <row r="40" spans="2:28" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="8">
+        <v>1</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="9">
+        <v>1</v>
+      </c>
+      <c r="E40" s="10">
+        <v>4</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O40" s="8">
+        <v>1</v>
+      </c>
+      <c r="P40" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="9">
+        <v>1</v>
+      </c>
+      <c r="R40" s="10">
+        <v>6</v>
+      </c>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="W40" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="X40" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y40" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z40" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA40" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB40" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="40" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
+    <row r="41" spans="2:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B41" s="8">
+        <v>2</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="9">
+        <v>4</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0</v>
+      </c>
+      <c r="F41" s="11">
+        <v>1</v>
+      </c>
+      <c r="G41" s="11">
+        <v>2</v>
+      </c>
+      <c r="H41" s="11">
+        <v>3</v>
+      </c>
+      <c r="I41" s="11"/>
+      <c r="O41" s="8">
+        <v>2</v>
+      </c>
+      <c r="P41" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="9">
+        <v>6</v>
+      </c>
+      <c r="R41" s="10">
+        <v>0</v>
+      </c>
+      <c r="S41" s="11">
+        <v>1</v>
+      </c>
+      <c r="T41" s="11">
+        <v>2</v>
+      </c>
+      <c r="U41" s="11">
+        <v>3</v>
+      </c>
+      <c r="V41" s="11">
+        <v>4</v>
+      </c>
+      <c r="W41" s="12">
+        <v>5</v>
+      </c>
+      <c r="X41" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y41" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z41" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA41" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB41" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="41" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
+    <row r="42" spans="2:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B42" s="8">
+        <v>3</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="9">
+        <v>4</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0</v>
+      </c>
+      <c r="F42" s="11">
+        <v>1</v>
+      </c>
+      <c r="G42" s="11">
+        <v>2</v>
+      </c>
+      <c r="H42" s="11">
+        <v>3</v>
+      </c>
+      <c r="I42" s="11"/>
+      <c r="O42" s="8">
+        <v>3</v>
+      </c>
+      <c r="P42" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="9">
+        <v>6</v>
+      </c>
+      <c r="R42" s="10">
+        <v>0</v>
+      </c>
+      <c r="S42" s="11">
+        <v>1</v>
+      </c>
+      <c r="T42" s="11">
+        <v>2</v>
+      </c>
+      <c r="U42" s="11">
+        <v>3</v>
+      </c>
+      <c r="V42" s="11">
+        <v>4</v>
+      </c>
+      <c r="W42" s="12">
+        <v>5</v>
+      </c>
+      <c r="X42" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y42" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z42" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA42" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB42" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B43" s="8">
+        <v>4</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="9">
+        <v>3</v>
+      </c>
+      <c r="E43" s="10">
+        <v>1</v>
+      </c>
+      <c r="F43" s="11">
+        <v>2</v>
+      </c>
+      <c r="G43" s="11">
+        <v>3</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="O43" s="8">
+        <v>4</v>
+      </c>
+      <c r="P43" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q43" s="9">
+        <v>5</v>
+      </c>
+      <c r="R43" s="10">
+        <v>1</v>
+      </c>
+      <c r="S43" s="11">
+        <v>2</v>
+      </c>
+      <c r="T43" s="11">
+        <v>3</v>
+      </c>
+      <c r="U43" s="11">
+        <v>4</v>
+      </c>
+      <c r="V43" s="11">
+        <v>5</v>
+      </c>
+      <c r="W43" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="X43" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y43" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z43" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA43" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB43" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B44" s="8">
+        <v>5</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="9">
+        <v>3</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="O44" s="8">
+        <v>5</v>
+      </c>
+      <c r="P44" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="9">
+        <v>5</v>
+      </c>
+      <c r="R44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="S44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="T44" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="U44" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V44" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="W44" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="X44" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y44" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z44" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA44" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB44" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B45" s="8">
+        <v>6</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="9">
+        <v>4</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0</v>
+      </c>
+      <c r="F45" s="11">
+        <v>1</v>
+      </c>
+      <c r="G45" s="11">
+        <v>2</v>
+      </c>
+      <c r="H45" s="11">
+        <v>3</v>
+      </c>
+      <c r="I45" s="11"/>
+      <c r="O45" s="8">
+        <v>6</v>
+      </c>
+      <c r="P45" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q45" s="9">
+        <v>6</v>
+      </c>
+      <c r="R45" s="10">
+        <v>0</v>
+      </c>
+      <c r="S45" s="11">
+        <v>1</v>
+      </c>
+      <c r="T45" s="11">
+        <v>2</v>
+      </c>
+      <c r="U45" s="11">
+        <v>3</v>
+      </c>
+      <c r="V45" s="11">
+        <v>4</v>
+      </c>
+      <c r="W45" s="12">
+        <v>5</v>
+      </c>
+      <c r="X45" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y45" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z45" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA45" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB45" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B46" s="38">
+        <v>7</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="40">
+        <v>1</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="O46" s="38">
+        <v>7</v>
+      </c>
+      <c r="P46" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q46" s="40">
+        <v>1</v>
+      </c>
+      <c r="R46" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="S46" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="T46" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="U46" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="V46" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="W46" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="X46" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y46" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z46" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA46" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB46" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B47" s="13">
+        <v>8</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="14">
+        <v>2</v>
+      </c>
+      <c r="E47" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="F47" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O47" s="13">
+        <v>8</v>
+      </c>
+      <c r="P47" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q47" s="14">
+        <v>2</v>
+      </c>
+      <c r="R47" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="S47" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="T47" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U47" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="V47" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="W47" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="X47" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y47" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z47" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA47" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB47" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="B48" s="13">
+        <v>9</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="14">
+        <v>4</v>
+      </c>
+      <c r="E48" s="15">
+        <v>0</v>
+      </c>
+      <c r="F48" s="27">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G48" s="17">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
+      <c r="H48" s="16">
+        <f>3/1</f>
+        <v>3</v>
+      </c>
+      <c r="I48" s="16"/>
+      <c r="O48" s="13">
+        <v>9</v>
+      </c>
+      <c r="P48" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q48" s="14">
+        <v>4</v>
+      </c>
+      <c r="R48" s="15">
+        <v>0</v>
+      </c>
+      <c r="S48" s="17">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="T48" s="16">
+        <f>2/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="U48" s="17">
+        <f>3/3</f>
+        <v>1</v>
+      </c>
+      <c r="V48" s="60"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="60"/>
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="60"/>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="18"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="14">
+        <f>D40*D41*D42*D43*D44*D45*D47*D46*D48</f>
+        <v>4608</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="O49" s="18">
+        <v>10</v>
+      </c>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="62">
+        <f>Q40*Q41*Q42*Q43*Q44*Q45*Q47*Q46*Q48</f>
+        <v>43200</v>
+      </c>
+      <c r="R49" s="63"/>
+      <c r="S49" s="60"/>
+      <c r="T49" s="60"/>
+      <c r="U49" s="60"/>
+      <c r="V49" s="60"/>
+      <c r="W49" s="60"/>
+      <c r="X49" s="60"/>
+      <c r="Y49" s="60"/>
+      <c r="Z49" s="60"/>
+      <c r="AA49" s="60"/>
+      <c r="AB49" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E6:O6"/>
+  <mergeCells count="10">
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="R23:AB23"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="R38:AB38"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E6:N6"/>
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C14" r:id="rId1"/>
+    <hyperlink ref="C31" r:id="rId2"/>
+    <hyperlink ref="C46" r:id="rId3"/>
+    <hyperlink ref="P31" r:id="rId4"/>
+    <hyperlink ref="P46" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId6"/>
+  <tableParts count="5">
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
--- a/optimization/Concepts.xlsx
+++ b/optimization/Concepts.xlsx
@@ -1,17 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\drive\master\Master_git\Master\optimization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{EBC5F67B-883B-4D87-8949-37A57E1FC7A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="גיליון1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,133 +34,116 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="32">
   <si>
-    <t xml:space="preserve">Concepts</t>
+    <t>Concepts</t>
   </si>
   <si>
-    <t xml:space="preserve">Variable</t>
+    <t>Variable</t>
   </si>
   <si>
-    <t xml:space="preserve">number of concepts</t>
+    <t>number of concepts</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
+    <t>2</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
+    <t>3</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
+    <t>4</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
+    <t>5</t>
   </si>
   <si>
-    <t xml:space="preserve">6</t>
+    <t>6</t>
   </si>
   <si>
-    <t xml:space="preserve">7</t>
+    <t>7</t>
   </si>
   <si>
-    <t xml:space="preserve">8</t>
+    <t>8</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
+    <t>9</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
+    <t>10</t>
   </si>
   <si>
-    <t xml:space="preserve">DOF</t>
+    <t>DOF</t>
   </si>
   <si>
-    <t xml:space="preserve">***</t>
+    <t>***</t>
   </si>
   <si>
-    <t xml:space="preserve">Pitch joints</t>
+    <t>Pitch joints</t>
   </si>
   <si>
-    <t xml:space="preserve">Long links (0.7 m)</t>
+    <t>Long links (0.7 m)</t>
   </si>
   <si>
-    <t xml:space="preserve">about y axe</t>
+    <t>about y axe</t>
   </si>
   <si>
-    <t xml:space="preserve">min 1 max 3.6</t>
+    <t>min 1 max 3.6</t>
   </si>
   <si>
-    <t xml:space="preserve">acc length</t>
+    <t>acc length</t>
   </si>
   <si>
-    <t xml:space="preserve">1-1.5</t>
+    <t>1-1.5</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6-2</t>
+    <t>1.6-2</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1-2.6</t>
+    <t>2.1-2.6</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7-3.1</t>
+    <t>2.7-3.1</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1-3.6</t>
+    <t>3.1-3.6</t>
   </si>
   <si>
-    <t xml:space="preserve"># of parallel axes – y</t>
+    <t># of parallel axes – y</t>
   </si>
   <si>
-    <t xml:space="preserve"># of parallel axes – z</t>
+    <t># of parallel axes – z</t>
   </si>
   <si>
-    <t xml:space="preserve">longest link</t>
+    <t>longest link</t>
   </si>
   <si>
-    <t xml:space="preserve">prismatic to revulote ratio</t>
+    <t>prismatic to revulote ratio</t>
   </si>
   <si>
-    <t xml:space="preserve">total</t>
+    <t>total</t>
   </si>
   <si>
-    <t xml:space="preserve">11</t>
+    <t>11</t>
   </si>
   <si>
-    <t xml:space="preserve">prismatic to revolute ratio</t>
+    <t>prismatic to revolute ratio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="14"/>
@@ -158,7 +153,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <strike val="true"/>
+      <strike/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -169,7 +164,6 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -182,709 +176,1137 @@
     </fill>
   </fills>
   <borders count="39">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="thin"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="62">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="C7:N16" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="C7:N16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="C7:N16" totalsRowShown="0">
+  <autoFilter ref="C7:N16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Variable"/>
-    <tableColumn id="2" name="number of concepts"/>
-    <tableColumn id="3" name="1"/>
-    <tableColumn id="4" name="2"/>
-    <tableColumn id="5" name="3"/>
-    <tableColumn id="6" name="4"/>
-    <tableColumn id="7" name="5"/>
-    <tableColumn id="8" name="6"/>
-    <tableColumn id="9" name="7"/>
-    <tableColumn id="10" name="8"/>
-    <tableColumn id="11" name="9"/>
-    <tableColumn id="12" name="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Variable"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="number of concepts"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="8"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="9"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="10"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table22" displayName="Table22" ref="C24:H33" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="C24:H33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table22" displayName="Table22" ref="C24:H33" totalsRowShown="0">
+  <autoFilter ref="C24:H33" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Variable"/>
-    <tableColumn id="2" name="number of concepts"/>
-    <tableColumn id="3" name="1"/>
-    <tableColumn id="4" name="2"/>
-    <tableColumn id="5" name="3"/>
-    <tableColumn id="6" name="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Variable"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="number of concepts"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="4"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table26" displayName="Table26" ref="C39:I49" headerRowCount="1" totalsRowCount="1" totalsRowShown="1">
-  <autoFilter ref="C39:I49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table26" displayName="Table26" ref="C39:I49">
   <tableColumns count="7">
-    <tableColumn id="1" name="Variable"/>
-    <tableColumn id="2" name="number of concepts"/>
-    <tableColumn id="3" name="1"/>
-    <tableColumn id="4" name="2"/>
-    <tableColumn id="5" name="3"/>
-    <tableColumn id="6" name="4"/>
-    <tableColumn id="7" name="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Variable"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="number of concepts"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="5"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table28" displayName="Table28" ref="P24:AB34" headerRowCount="1" totalsRowCount="1" totalsRowShown="1">
-  <autoFilter ref="P24:AB34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table28" displayName="Table28" ref="P24:AB34">
   <tableColumns count="13">
-    <tableColumn id="1" name="Variable"/>
-    <tableColumn id="2" name="number of concepts"/>
-    <tableColumn id="3" name="1"/>
-    <tableColumn id="4" name="2"/>
-    <tableColumn id="5" name="3"/>
-    <tableColumn id="6" name="4"/>
-    <tableColumn id="7" name="5"/>
-    <tableColumn id="8" name="6"/>
-    <tableColumn id="9" name="7"/>
-    <tableColumn id="10" name="8"/>
-    <tableColumn id="11" name="9"/>
-    <tableColumn id="12" name="10"/>
-    <tableColumn id="13" name="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Variable"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="number of concepts"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="8"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="9"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="10"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="11"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table2810" displayName="Table2810" ref="P39:AB49" headerRowCount="1" totalsRowCount="1" totalsRowShown="1">
-  <autoFilter ref="P39:AB49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table2810" displayName="Table2810" ref="P39:AB49">
   <tableColumns count="13">
-    <tableColumn id="1" name="Variable"/>
-    <tableColumn id="2" name="number of concepts"/>
-    <tableColumn id="3" name="1"/>
-    <tableColumn id="4" name="2"/>
-    <tableColumn id="5" name="3"/>
-    <tableColumn id="6" name="4"/>
-    <tableColumn id="7" name="5"/>
-    <tableColumn id="8" name="6"/>
-    <tableColumn id="9" name="7"/>
-    <tableColumn id="10" name="8"/>
-    <tableColumn id="11" name="9"/>
-    <tableColumn id="12" name="10"/>
-    <tableColumn id="13" name="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Variable"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="number of concepts"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="8"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="9"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="10"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="11"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A5:AB49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A6:AB49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="4.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="8.53"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
+    <col min="18" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2" t="s">
+    <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
         <v>1</v>
@@ -923,26 +1345,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="9" t="n">
+    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" s="13" t="n">
+      <c r="D8" s="11">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12">
+        <v>3</v>
+      </c>
+      <c r="F8" s="13">
+        <v>4</v>
+      </c>
+      <c r="G8" s="13">
         <v>5</v>
       </c>
-      <c r="H8" s="13" t="n">
+      <c r="H8" s="13">
         <v>6</v>
       </c>
       <c r="I8" s="13" t="s">
@@ -964,32 +1386,32 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="9" t="n">
+    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
         <v>2</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="11">
         <v>6</v>
       </c>
-      <c r="E9" s="12" t="n">
+      <c r="E9" s="12">
         <v>0</v>
       </c>
-      <c r="F9" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="J9" s="15" t="n">
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+      <c r="G9" s="13">
+        <v>2</v>
+      </c>
+      <c r="H9" s="13">
+        <v>3</v>
+      </c>
+      <c r="I9" s="13">
+        <v>4</v>
+      </c>
+      <c r="J9" s="15">
         <v>5</v>
       </c>
       <c r="K9" s="13" t="s">
@@ -1005,32 +1427,32 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="9" t="n">
+    <row r="10" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
         <v>3</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="11">
         <v>6</v>
       </c>
-      <c r="E10" s="12" t="n">
+      <c r="E10" s="12">
         <v>0</v>
       </c>
-      <c r="F10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" s="15" t="n">
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13">
+        <v>2</v>
+      </c>
+      <c r="H10" s="13">
+        <v>3</v>
+      </c>
+      <c r="I10" s="13">
+        <v>4</v>
+      </c>
+      <c r="J10" s="15">
         <v>5</v>
       </c>
       <c r="K10" s="13" t="s">
@@ -1046,29 +1468,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="16" t="n">
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="16">
         <v>4</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="18" t="n">
+      <c r="D11" s="18">
         <v>5</v>
       </c>
-      <c r="E11" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="I11" s="20" t="n">
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="20">
+        <v>2</v>
+      </c>
+      <c r="G11" s="20">
+        <v>3</v>
+      </c>
+      <c r="H11" s="20">
+        <v>4</v>
+      </c>
+      <c r="I11" s="20">
         <v>5</v>
       </c>
       <c r="J11" s="20" t="s">
@@ -1087,17 +1509,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="9">
         <v>5</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="11" t="n">
+      <c r="D12" s="11">
         <v>5</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -1131,30 +1553,30 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="9" t="n">
+    <row r="13" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="9">
         <v>6</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="11">
         <v>5</v>
       </c>
-      <c r="E13" s="12" t="n">
+      <c r="E13" s="12">
         <v>0</v>
       </c>
       <c r="F13" s="13"/>
-      <c r="G13" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="I13" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="J13" s="15" t="n">
+      <c r="G13" s="13">
+        <v>2</v>
+      </c>
+      <c r="H13" s="13">
+        <v>3</v>
+      </c>
+      <c r="I13" s="13">
+        <v>4</v>
+      </c>
+      <c r="J13" s="15">
         <v>5</v>
       </c>
       <c r="K13" s="13" t="s">
@@ -1170,27 +1592,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="16" t="n">
+    <row r="14" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="16">
         <v>7</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E14" s="12" t="n">
+      <c r="D14" s="18">
+        <v>4</v>
+      </c>
+      <c r="E14" s="19">
         <v>0</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" s="13" t="n">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20">
+        <v>2</v>
+      </c>
+      <c r="H14" s="20">
+        <v>3</v>
+      </c>
+      <c r="I14" s="20">
         <v>4</v>
       </c>
       <c r="J14" s="20"/>
@@ -1207,20 +1629,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="22" t="n">
+    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="22">
         <v>8</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" s="24" t="n">
+      <c r="D15" s="23">
+        <v>2</v>
+      </c>
+      <c r="E15" s="24">
         <v>0.4</v>
       </c>
-      <c r="F15" s="25" t="n">
+      <c r="F15" s="25">
         <v>0.7</v>
       </c>
       <c r="G15" s="13" t="s">
@@ -1248,58 +1670,58 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="22" t="n">
+    <row r="16" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="22">
         <v>9</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="23" t="n">
+      <c r="D16" s="23">
         <v>10</v>
       </c>
-      <c r="E16" s="24" t="n">
+      <c r="E16" s="24">
         <v>0</v>
       </c>
-      <c r="F16" s="26" t="n">
-        <f aca="false">1/5</f>
+      <c r="F16" s="26">
+        <f>1/5</f>
         <v>0.2</v>
       </c>
-      <c r="G16" s="26" t="n">
-        <f aca="false">1/4</f>
+      <c r="G16" s="26">
+        <f>1/4</f>
         <v>0.25</v>
       </c>
-      <c r="H16" s="27" t="n">
-        <f aca="false">1/3</f>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I16" s="25" t="n">
-        <f aca="false">1/2</f>
+      <c r="H16" s="27">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I16" s="25">
+        <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="J16" s="28" t="n">
-        <f aca="false">2/3</f>
-        <v>0.666666666666667</v>
-      </c>
-      <c r="K16" s="26" t="n">
-        <f aca="false">3/3</f>
-        <v>1</v>
-      </c>
-      <c r="L16" s="29" t="n">
-        <f aca="false">3/2</f>
+      <c r="J16" s="28">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K16" s="26">
+        <f>3/3</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="29">
+        <f>3/2</f>
         <v>1.5</v>
       </c>
-      <c r="M16" s="25" t="n">
-        <f aca="false">2/1</f>
-        <v>2</v>
-      </c>
-      <c r="N16" s="30" t="n">
-        <f aca="false">3/1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="31" t="n">
+      <c r="M16" s="25">
+        <f>2/1</f>
+        <v>2</v>
+      </c>
+      <c r="N16" s="30">
+        <f>3/1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="31">
         <v>10</v>
       </c>
       <c r="C17" s="32"/>
@@ -1315,14 +1737,14 @@
       <c r="M17" s="36"/>
       <c r="N17" s="37"/>
     </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="38"/>
       <c r="C18" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="39" t="n">
-        <f aca="false">D34+Table28[[#Totals],[number of concepts]]+Table26[[#Totals],[number of concepts]]+Table2810[[#Totals],[number of concepts]]</f>
-        <v>45128</v>
+      <c r="D18" s="39">
+        <f>D34++Q34+Q49+D49</f>
+        <v>11588</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
@@ -1336,7 +1758,7 @@
       <c r="N18" s="40"/>
       <c r="O18" s="41"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C19" s="42"/>
       <c r="D19" s="42"/>
       <c r="E19" s="41"/>
@@ -1351,7 +1773,7 @@
       <c r="N19" s="41"/>
       <c r="O19" s="41"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
@@ -1364,7 +1786,7 @@
       <c r="N20" s="41"/>
       <c r="O20" s="41"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
@@ -1377,7 +1799,7 @@
       <c r="N21" s="41"/>
       <c r="O21" s="41"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="E22" s="41"/>
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
@@ -1390,34 +1812,34 @@
       <c r="N22" s="41"/>
       <c r="O22" s="41"/>
     </row>
-    <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2" t="s">
+    <row r="23" spans="2:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="2" t="s">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+    </row>
+    <row r="24" spans="2:28" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="4" t="s">
         <v>1</v>
@@ -1479,33 +1901,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="9" t="n">
+    <row r="25" spans="2:28" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="9">
         <v>1</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="47" t="n">
+      <c r="D25" s="46">
+        <v>1</v>
+      </c>
+      <c r="E25" s="47">
         <v>3</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="14"/>
       <c r="I25" s="41"/>
-      <c r="O25" s="9" t="n">
+      <c r="O25" s="9">
         <v>1</v>
       </c>
       <c r="P25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q25" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" s="12" t="n">
+      <c r="Q25" s="11">
+        <v>1</v>
+      </c>
+      <c r="R25" s="12">
         <v>5</v>
       </c>
       <c r="S25" s="13"/>
@@ -1533,49 +1955,49 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="9" t="n">
+    <row r="26" spans="2:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="9">
         <v>2</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="46" t="n">
-        <v>3</v>
-      </c>
-      <c r="E26" s="47" t="n">
+      <c r="D26" s="46">
+        <v>3</v>
+      </c>
+      <c r="E26" s="47">
         <v>0</v>
       </c>
-      <c r="F26" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="13" t="n">
+      <c r="F26" s="13">
+        <v>1</v>
+      </c>
+      <c r="G26" s="13">
         <v>2</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="41"/>
-      <c r="O26" s="9" t="n">
+      <c r="O26" s="9">
         <v>2</v>
       </c>
       <c r="P26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q26" s="11" t="n">
+      <c r="Q26" s="11">
         <v>5</v>
       </c>
-      <c r="R26" s="12" t="n">
+      <c r="R26" s="12">
         <v>0</v>
       </c>
-      <c r="S26" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T26" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="U26" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="V26" s="13" t="n">
+      <c r="S26" s="13">
+        <v>1</v>
+      </c>
+      <c r="T26" s="13">
+        <v>2</v>
+      </c>
+      <c r="U26" s="13">
+        <v>3</v>
+      </c>
+      <c r="V26" s="13">
         <v>4</v>
       </c>
       <c r="W26" s="15"/>
@@ -1595,47 +2017,47 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="9" t="n">
+    <row r="27" spans="2:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="9">
         <v>3</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="46" t="n">
-        <v>2</v>
-      </c>
-      <c r="E27" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="25" t="n">
+      <c r="D27" s="46">
+        <v>2</v>
+      </c>
+      <c r="E27" s="47">
+        <v>1</v>
+      </c>
+      <c r="F27" s="25">
         <v>2</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="14"/>
       <c r="I27" s="41"/>
-      <c r="O27" s="9" t="n">
+      <c r="O27" s="9">
         <v>3</v>
       </c>
       <c r="P27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="11" t="n">
+      <c r="Q27" s="11">
         <v>5</v>
       </c>
-      <c r="R27" s="12" t="n">
+      <c r="R27" s="12">
         <v>0</v>
       </c>
-      <c r="S27" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T27" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="U27" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="V27" s="13" t="n">
+      <c r="S27" s="13">
+        <v>1</v>
+      </c>
+      <c r="T27" s="13">
+        <v>2</v>
+      </c>
+      <c r="U27" s="13">
+        <v>3</v>
+      </c>
+      <c r="V27" s="13">
         <v>4</v>
       </c>
       <c r="W27" s="15"/>
@@ -1655,44 +2077,44 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="16" t="n">
+    <row r="28" spans="2:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="16">
         <v>4</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="20" t="n">
+      <c r="D28" s="48">
+        <v>1</v>
+      </c>
+      <c r="E28" s="49">
+        <v>1</v>
+      </c>
+      <c r="F28" s="20">
         <v>2</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="21"/>
       <c r="I28" s="41"/>
-      <c r="O28" s="16" t="n">
+      <c r="O28" s="16">
         <v>4</v>
       </c>
       <c r="P28" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="S28" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="T28" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="U28" s="20" t="n">
+      <c r="Q28" s="18">
+        <v>1</v>
+      </c>
+      <c r="R28" s="19">
+        <v>1</v>
+      </c>
+      <c r="S28" s="20">
+        <v>2</v>
+      </c>
+      <c r="T28" s="20">
+        <v>3</v>
+      </c>
+      <c r="U28" s="20">
         <v>4</v>
       </c>
       <c r="V28" s="20"/>
@@ -1715,14 +2137,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="9" t="n">
+    <row r="29" spans="2:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="9">
         <v>5</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="46" t="n">
+      <c r="D29" s="46">
         <v>1</v>
       </c>
       <c r="E29" s="47" t="s">
@@ -1732,13 +2154,13 @@
       <c r="G29" s="13"/>
       <c r="H29" s="14"/>
       <c r="I29" s="41"/>
-      <c r="O29" s="9" t="n">
+      <c r="O29" s="9">
         <v>5</v>
       </c>
       <c r="P29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="11" t="n">
+      <c r="Q29" s="11">
         <v>4</v>
       </c>
       <c r="R29" s="12" t="s">
@@ -1773,44 +2195,44 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="9" t="n">
+    <row r="30" spans="2:28" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="9">
         <v>6</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" s="12" t="n">
+      <c r="D30" s="11">
+        <v>2</v>
+      </c>
+      <c r="E30" s="12">
         <v>0</v>
       </c>
-      <c r="F30" s="13" t="n">
+      <c r="F30" s="13">
         <v>2</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="41"/>
-      <c r="O30" s="9" t="n">
+      <c r="O30" s="9">
         <v>6</v>
       </c>
       <c r="P30" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Q30" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="R30" s="12" t="n">
+      <c r="Q30" s="11">
+        <v>4</v>
+      </c>
+      <c r="R30" s="12">
         <v>0</v>
       </c>
       <c r="S30" s="13"/>
-      <c r="T30" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="U30" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="V30" s="13" t="n">
+      <c r="T30" s="13">
+        <v>2</v>
+      </c>
+      <c r="U30" s="13">
+        <v>3</v>
+      </c>
+      <c r="V30" s="13">
         <v>4</v>
       </c>
       <c r="W30" s="15"/>
@@ -1830,44 +2252,45 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="16" t="n">
+    <row r="31" spans="2:28" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B31" s="16">
         <v>7</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E31" s="12" t="n">
+      <c r="D31" s="16">
+        <v>1</v>
+      </c>
+      <c r="E31" s="16">
         <v>0</v>
       </c>
-      <c r="F31" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H31" s="14"/>
+      <c r="F31" s="16">
+        <v>2</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
       <c r="I31" s="41"/>
-      <c r="O31" s="16" t="n">
+      <c r="O31" s="16">
         <v>7</v>
       </c>
-      <c r="P31" s="10" t="s">
+      <c r="P31" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="Q31" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="R31" s="12" t="n">
+      <c r="Q31" s="18">
+        <v>1</v>
+      </c>
+      <c r="R31" s="19">
         <v>0</v>
       </c>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="U31" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="V31" s="13" t="n">
+      <c r="S31" s="20"/>
+      <c r="T31" s="20">
+        <v>2</v>
+      </c>
+      <c r="U31" s="20">
+        <v>3</v>
+      </c>
+      <c r="V31" s="20">
         <v>4</v>
       </c>
       <c r="W31" s="20"/>
@@ -1887,17 +2310,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="22" t="n">
+    <row r="32" spans="2:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="22">
         <v>8</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="52" t="n">
+      <c r="D32" s="51">
+        <v>1</v>
+      </c>
+      <c r="E32" s="52">
         <v>0.7</v>
       </c>
       <c r="F32" s="25"/>
@@ -1906,19 +2329,19 @@
         <v>14</v>
       </c>
       <c r="I32" s="41"/>
-      <c r="O32" s="22" t="n">
+      <c r="O32" s="22">
         <v>8</v>
       </c>
       <c r="P32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="Q32" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R32" s="24" t="n">
+      <c r="Q32" s="23">
+        <v>2</v>
+      </c>
+      <c r="R32" s="24">
         <v>0.4</v>
       </c>
-      <c r="S32" s="25" t="n">
+      <c r="S32" s="25">
         <v>0.7</v>
       </c>
       <c r="T32" s="13" t="s">
@@ -1949,51 +2372,51 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="31" t="n">
+    <row r="33" spans="2:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="B33" s="31">
         <v>9</v>
       </c>
       <c r="C33" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="32" t="n">
-        <v>3</v>
-      </c>
-      <c r="E33" s="54" t="n">
+      <c r="D33" s="32">
+        <v>3</v>
+      </c>
+      <c r="E33" s="54">
         <v>0</v>
       </c>
-      <c r="F33" s="35" t="n">
-        <f aca="false">1/2</f>
+      <c r="F33" s="35">
+        <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="G33" s="35" t="n">
-        <f aca="false">2/1</f>
+      <c r="G33" s="35">
+        <f>2/1</f>
         <v>2</v>
       </c>
       <c r="H33" s="55"/>
       <c r="I33" s="41"/>
-      <c r="O33" s="22" t="n">
+      <c r="O33" s="22">
         <v>9</v>
       </c>
       <c r="P33" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q33" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" s="24" t="n">
+      <c r="Q33" s="23">
+        <v>4</v>
+      </c>
+      <c r="R33" s="24">
         <v>0</v>
       </c>
-      <c r="S33" s="26" t="n">
-        <f aca="false">1/4</f>
+      <c r="S33" s="26">
+        <f>1/4</f>
         <v>0.25</v>
       </c>
-      <c r="T33" s="28" t="n">
-        <f aca="false">2/3</f>
-        <v>0.666666666666667</v>
-      </c>
-      <c r="U33" s="29" t="n">
-        <f aca="false">3/2</f>
+      <c r="T33" s="28">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U33" s="29">
+        <f>3/2</f>
         <v>1.5</v>
       </c>
       <c r="V33" s="25"/>
@@ -2006,14 +2429,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="38"/>
       <c r="C34" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="39" t="n">
-        <f aca="false">D25*D26*D27*D28*D29*D30*D31*D32*D33</f>
-        <v>72</v>
+      <c r="D34" s="39">
+        <f>D25*D26*D27*D28*D29*D30*D31*D32*D33</f>
+        <v>36</v>
       </c>
       <c r="E34" s="40"/>
       <c r="F34" s="40"/>
@@ -2025,13 +2448,13 @@
       <c r="L34" s="40"/>
       <c r="M34" s="40"/>
       <c r="N34" s="40"/>
-      <c r="O34" s="31" t="n">
+      <c r="O34" s="31">
         <v>10</v>
       </c>
       <c r="P34" s="56"/>
-      <c r="Q34" s="23" t="n">
-        <f aca="false">Q25*Q26*Q27*Q28*Q29*Q30*Q32*Q31*Q33</f>
-        <v>12800</v>
+      <c r="Q34" s="23">
+        <f>Q25*Q26*Q27*Q28*Q29*Q30*Q32*Q31*Q33</f>
+        <v>3200</v>
       </c>
       <c r="R34" s="24"/>
       <c r="S34" s="25"/>
@@ -2045,7 +2468,7 @@
       <c r="AA34" s="25"/>
       <c r="AB34" s="26"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
       <c r="E35" s="41"/>
       <c r="F35" s="41"/>
       <c r="G35" s="41"/>
@@ -2058,39 +2481,38 @@
       <c r="N35" s="41"/>
       <c r="O35" s="41"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
       <c r="O36" s="41"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="2" t="s">
+    <row r="38" spans="2:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="2" t="s">
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-    </row>
-    <row r="39" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+    </row>
+    <row r="39" spans="2:28" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B39" s="3"/>
       <c r="C39" s="4" t="s">
         <v>1</v>
@@ -2154,17 +2576,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="9" t="n">
+    <row r="40" spans="2:28" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="9">
         <v>1</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="12" t="n">
+      <c r="D40" s="11">
+        <v>1</v>
+      </c>
+      <c r="E40" s="12">
         <v>4</v>
       </c>
       <c r="F40" s="13"/>
@@ -2173,16 +2595,16 @@
       <c r="I40" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="9" t="n">
+      <c r="O40" s="9">
         <v>1</v>
       </c>
       <c r="P40" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q40" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R40" s="12" t="n">
+      <c r="Q40" s="11">
+        <v>1</v>
+      </c>
+      <c r="R40" s="12">
         <v>6</v>
       </c>
       <c r="S40" s="13"/>
@@ -2210,54 +2632,54 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="9" t="n">
+    <row r="41" spans="2:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B41" s="9">
         <v>2</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E41" s="12" t="n">
+      <c r="D41" s="11">
+        <v>4</v>
+      </c>
+      <c r="E41" s="12">
         <v>0</v>
       </c>
-      <c r="F41" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H41" s="13" t="n">
+      <c r="F41" s="13">
+        <v>1</v>
+      </c>
+      <c r="G41" s="13">
+        <v>2</v>
+      </c>
+      <c r="H41" s="13">
         <v>3</v>
       </c>
       <c r="I41" s="13"/>
-      <c r="O41" s="9" t="n">
+      <c r="O41" s="9">
         <v>2</v>
       </c>
       <c r="P41" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q41" s="11" t="n">
+      <c r="Q41" s="11">
         <v>6</v>
       </c>
-      <c r="R41" s="12" t="n">
+      <c r="R41" s="12">
         <v>0</v>
       </c>
-      <c r="S41" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T41" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="U41" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="V41" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="W41" s="15" t="n">
+      <c r="S41" s="13">
+        <v>1</v>
+      </c>
+      <c r="T41" s="13">
+        <v>2</v>
+      </c>
+      <c r="U41" s="13">
+        <v>3</v>
+      </c>
+      <c r="V41" s="13">
+        <v>4</v>
+      </c>
+      <c r="W41" s="15">
         <v>5</v>
       </c>
       <c r="X41" s="13" t="s">
@@ -2276,54 +2698,54 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="9" t="n">
+    <row r="42" spans="2:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B42" s="9">
         <v>3</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E42" s="12" t="n">
+      <c r="D42" s="11">
+        <v>4</v>
+      </c>
+      <c r="E42" s="12">
         <v>0</v>
       </c>
-      <c r="F42" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H42" s="13" t="n">
+      <c r="F42" s="13">
+        <v>1</v>
+      </c>
+      <c r="G42" s="13">
+        <v>2</v>
+      </c>
+      <c r="H42" s="13">
         <v>3</v>
       </c>
       <c r="I42" s="13"/>
-      <c r="O42" s="9" t="n">
+      <c r="O42" s="9">
         <v>3</v>
       </c>
       <c r="P42" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q42" s="11" t="n">
+      <c r="Q42" s="11">
         <v>6</v>
       </c>
-      <c r="R42" s="12" t="n">
+      <c r="R42" s="12">
         <v>0</v>
       </c>
-      <c r="S42" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T42" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="U42" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="V42" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="W42" s="15" t="n">
+      <c r="S42" s="13">
+        <v>1</v>
+      </c>
+      <c r="T42" s="13">
+        <v>2</v>
+      </c>
+      <c r="U42" s="13">
+        <v>3</v>
+      </c>
+      <c r="V42" s="13">
+        <v>4</v>
+      </c>
+      <c r="W42" s="15">
         <v>5</v>
       </c>
       <c r="X42" s="13" t="s">
@@ -2342,49 +2764,49 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="16" t="n">
+    <row r="43" spans="2:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B43" s="16">
         <v>4</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="G43" s="20" t="n">
+      <c r="D43" s="18">
+        <v>1</v>
+      </c>
+      <c r="E43" s="19">
+        <v>1</v>
+      </c>
+      <c r="F43" s="20">
+        <v>2</v>
+      </c>
+      <c r="G43" s="20">
         <v>3</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
-      <c r="O43" s="16" t="n">
+      <c r="O43" s="16">
         <v>4</v>
       </c>
       <c r="P43" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="Q43" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R43" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="S43" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="T43" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="U43" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="V43" s="20" t="n">
+      <c r="Q43" s="18">
+        <v>1</v>
+      </c>
+      <c r="R43" s="19">
+        <v>1</v>
+      </c>
+      <c r="S43" s="20">
+        <v>2</v>
+      </c>
+      <c r="T43" s="20">
+        <v>3</v>
+      </c>
+      <c r="U43" s="20">
+        <v>4</v>
+      </c>
+      <c r="V43" s="20">
         <v>5</v>
       </c>
       <c r="W43" s="20" t="s">
@@ -2406,14 +2828,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="9" t="n">
+    <row r="44" spans="2:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B44" s="9">
         <v>5</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="11" t="n">
+      <c r="D44" s="11">
         <v>3</v>
       </c>
       <c r="E44" s="12" t="s">
@@ -2427,13 +2849,13 @@
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
-      <c r="O44" s="9" t="n">
+      <c r="O44" s="9">
         <v>5</v>
       </c>
       <c r="P44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q44" s="11" t="n">
+      <c r="Q44" s="11">
         <v>5</v>
       </c>
       <c r="R44" s="12" t="s">
@@ -2470,49 +2892,49 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="9" t="n">
+    <row r="45" spans="2:28" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B45" s="9">
         <v>6</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E45" s="12" t="n">
+      <c r="D45" s="11">
+        <v>1</v>
+      </c>
+      <c r="E45" s="12">
         <v>0</v>
       </c>
-      <c r="F45" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G45" s="13" t="n">
+      <c r="F45" s="13">
+        <v>2</v>
+      </c>
+      <c r="G45" s="13">
         <v>3</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
-      <c r="O45" s="9" t="n">
+      <c r="O45" s="9">
         <v>6</v>
       </c>
       <c r="P45" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Q45" s="11" t="n">
+      <c r="Q45" s="11">
         <v>5</v>
       </c>
-      <c r="R45" s="12" t="n">
+      <c r="R45" s="12">
         <v>0</v>
       </c>
-      <c r="S45" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="T45" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="U45" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="V45" s="15" t="n">
+      <c r="S45" s="13">
+        <v>2</v>
+      </c>
+      <c r="T45" s="13">
+        <v>3</v>
+      </c>
+      <c r="U45" s="13">
+        <v>4</v>
+      </c>
+      <c r="V45" s="15">
         <v>5</v>
       </c>
       <c r="W45" s="15"/>
@@ -2532,79 +2954,80 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="51.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="16" t="n">
+    <row r="46" spans="2:28" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B46" s="16">
         <v>7</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E46" s="12" t="n">
+      <c r="D46" s="18">
+        <v>3</v>
+      </c>
+      <c r="E46" s="19">
         <v>0</v>
       </c>
-      <c r="F46" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" s="13" t="n">
-        <v>3</v>
-      </c>
+      <c r="F46" s="20">
+        <v>2</v>
+      </c>
+      <c r="G46" s="20">
+        <v>3</v>
+      </c>
+      <c r="H46" s="13"/>
       <c r="I46" s="13"/>
-      <c r="O46" s="16" t="n">
+      <c r="O46" s="16">
         <v>7</v>
       </c>
-      <c r="P46" s="10" t="s">
+      <c r="P46" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="Q46" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="R46" s="12" t="n">
+      <c r="Q46" s="18">
+        <v>1</v>
+      </c>
+      <c r="R46" s="19">
         <v>0</v>
       </c>
-      <c r="S46" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="T46" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="U46" s="13" t="n">
+      <c r="S46" s="20">
+        <v>2</v>
+      </c>
+      <c r="T46" s="20">
+        <v>3</v>
+      </c>
+      <c r="U46" s="20">
         <v>4</v>
       </c>
       <c r="V46" s="20"/>
       <c r="W46" s="20"/>
-      <c r="X46" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y46" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z46" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA46" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB46" s="50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="22" t="n">
+      <c r="X46" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y46" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z46" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA46" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB46" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B47" s="22">
         <v>8</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="E47" s="24" t="n">
+      <c r="D47" s="23">
+        <v>2</v>
+      </c>
+      <c r="E47" s="24">
         <v>0.4</v>
       </c>
-      <c r="F47" s="25" t="n">
+      <c r="F47" s="25">
         <v>0.7</v>
       </c>
       <c r="G47" s="13" t="s">
@@ -2616,19 +3039,19 @@
       <c r="I47" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O47" s="22" t="n">
+      <c r="O47" s="22">
         <v>8</v>
       </c>
       <c r="P47" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="Q47" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R47" s="24" t="n">
+      <c r="Q47" s="23">
+        <v>2</v>
+      </c>
+      <c r="R47" s="24">
         <v>0.4</v>
       </c>
-      <c r="S47" s="25" t="n">
+      <c r="S47" s="25">
         <v>0.7</v>
       </c>
       <c r="T47" s="13" t="s">
@@ -2659,54 +3082,54 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="22" t="n">
+    <row r="48" spans="2:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="B48" s="22">
         <v>9</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="E48" s="24" t="n">
+      <c r="D48" s="23">
+        <v>4</v>
+      </c>
+      <c r="E48" s="24">
         <v>0</v>
       </c>
-      <c r="F48" s="27" t="n">
-        <f aca="false">1/3</f>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G48" s="26" t="n">
-        <f aca="false">2/2</f>
-        <v>1</v>
-      </c>
-      <c r="H48" s="25" t="n">
-        <f aca="false">3/1</f>
+      <c r="F48" s="27">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G48" s="26">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
+      <c r="H48" s="25">
+        <f>3/1</f>
         <v>3</v>
       </c>
       <c r="I48" s="25"/>
-      <c r="O48" s="22" t="n">
+      <c r="O48" s="22">
         <v>9</v>
       </c>
       <c r="P48" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q48" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R48" s="24" t="n">
+      <c r="Q48" s="23">
+        <v>4</v>
+      </c>
+      <c r="R48" s="24">
         <v>0</v>
       </c>
-      <c r="S48" s="26" t="n">
-        <f aca="false">1/5</f>
+      <c r="S48" s="26">
+        <f>1/5</f>
         <v>0.2</v>
       </c>
-      <c r="T48" s="25" t="n">
-        <f aca="false">2/4</f>
+      <c r="T48" s="25">
+        <f>2/4</f>
         <v>0.5</v>
       </c>
-      <c r="U48" s="26" t="n">
-        <f aca="false">3/3</f>
+      <c r="U48" s="26">
+        <f>3/3</f>
         <v>1</v>
       </c>
       <c r="V48" s="57"/>
@@ -2719,25 +3142,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="2:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B49" s="31"/>
       <c r="C49" s="56"/>
-      <c r="D49" s="23" t="n">
-        <f aca="false">D40*D41*D42*D43*D44*D45*D47*D46*D48</f>
-        <v>3456</v>
+      <c r="D49" s="23">
+        <f>D40*D41*D42*D43*D44*D45*D47*D46*D48</f>
+        <v>1152</v>
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
-      <c r="O49" s="31" t="n">
+      <c r="O49" s="31">
         <v>10</v>
       </c>
       <c r="P49" s="58"/>
-      <c r="Q49" s="59" t="n">
-        <f aca="false">Q40*Q41*Q42*Q43*Q44*Q45*Q47*Q46*Q48</f>
-        <v>28800</v>
+      <c r="Q49" s="59">
+        <f>Q40*Q41*Q42*Q43*Q44*Q45*Q47*Q46*Q48</f>
+        <v>7200</v>
       </c>
       <c r="R49" s="60"/>
       <c r="S49" s="57"/>
@@ -2753,25 +3176,20 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="R23:AB23"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="R38:AB38"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:N6"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="R23:AB23"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="R38:AB38"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="5">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
